--- a/biology/Botanique/Chèvrefeuille_des_Baléares/Chèvrefeuille_des_Baléares.xlsx
+++ b/biology/Botanique/Chèvrefeuille_des_Baléares/Chèvrefeuille_des_Baléares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
+          <t>Chèvrefeuille_des_Baléares</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera implexa
 Le Chèvrefeuille  des Baléares  ou Chèvrefeuille  entrelacé  ou Chèvrefeuille de Mahon (Lonicera implexa), en anglais Evergreen Honeysuckle et Mediterranean Honeysuckle,  est une liane arbustive de la famille des Caprifoliacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
+          <t>Chèvrefeuille_des_Baléares</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le Chèvrefeuille des Baléares est une liane de 1 à 2 mètres de haut aux feuilles persistantes très coriaces, opposées.
-Les fleurs sont à tube rose et corolle blanche, peu parfumées, et les fruits sont rouges à maturité[1].
-Caractéristiques
-Organes reproducteurs
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chèvrefeuille des Baléares est une liane de 1 à 2 mètres de haut aux feuilles persistantes très coriaces, opposées.
+Les fleurs sont à tube rose et corolle blanche, peu parfumées, et les fruits sont rouges à maturité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille_des_Baléares</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Période de floraison : mars à octobre
 Inflorescence : cyme multipare
 Sexualité : hermaphrodite
@@ -529,45 +578,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Habitat et répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbuste des bois et des rochers du pourtour méditerranéen, Afrique-du-Nord, et Europe.
-En France métropolitaine, le chèvrefeuille  des Baléares est présent en Corse, en Provence et dans le Languedoc[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
+          <t>Chèvrefeuille_des_Baléares</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,13 +599,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Synonymes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Caprifolium implexum Aiton, 1814
-Lonicera caprifolium Desf.</t>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbuste des bois et des rochers du pourtour méditerranéen, Afrique-du-Nord, et Europe.
+En France métropolitaine, le chèvrefeuille  des Baléares est présent en Corse, en Provence et dans le Languedoc.
+</t>
         </is>
       </c>
     </row>
@@ -598,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
+          <t>Chèvrefeuille_des_Baléares</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,10 +633,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Caprifolium implexum Aiton, 1814
+Lonicera caprifolium Desf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille_des_Baléares</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille_des_Bal%C3%A9ares</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lonicera implexa Aiton  subsp. splendida (Boiss.) O.Bolòs  , Vigo  , Masalles  &amp;  Ninot
 Lonicera implexa Aiton  subsp. valentina (Pau ex Willk.) Rivas Mart.  &amp;  M.J.Costa</t>
